--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/sum_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.1/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="134">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,288 +58,147 @@
     <t>shit</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>hate</t>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>fucking</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>weird</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>destroying</t>
   </si>
   <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>vicious</t>
+    <t>dumb</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>anxious</t>
+  </si>
+  <si>
+    <t>[UNK]</t>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>serious</t>
   </si>
   <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>confusing</t>
+    <t>shocked</t>
   </si>
   <si>
     <t>least</t>
   </si>
   <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>heavy</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>dangerously</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>problematic</t>
-  </si>
-  <si>
-    <t>disgusted</t>
-  </si>
-  <si>
-    <t>corrupt</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>extreme</t>
-  </si>
-  <si>
-    <t>anxious</t>
-  </si>
-  <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>sexual</t>
-  </si>
-  <si>
-    <t>rarely</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>late</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>bleak</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>ruining</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>freaking</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>eerie</t>
-  </si>
-  <si>
-    <t>hated</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>annoyed</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>disturbed</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>shocked</t>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
@@ -352,307 +211,208 @@
     <t>best</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>w</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>make</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>masterpiece</t>
-  </si>
-  <si>
-    <t>vital</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>essential</t>
+    <t>works</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>opener</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>irony</t>
   </si>
   <si>
     <t>twitter</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>impressed</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>large</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>similar</t>
-  </si>
-  <si>
-    <t>hopeful</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>bigger</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>yep</t>
-  </si>
-  <si>
-    <t>movies</t>
-  </si>
-  <si>
-    <t>loving</t>
-  </si>
-  <si>
-    <t>hugely</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>waiting</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>rev</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>algorithm</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>opt</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>org</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
     <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>smart</t>
   </si>
   <si>
     <t>positive</t>
@@ -1013,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,10 +781,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1082,13 +842,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1564945226917058</v>
+        <v>0.177536231884058</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1100,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="K3">
-        <v>0.09429824561403509</v>
+        <v>0.1154791154791155</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1124,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1132,13 +892,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1017214397496088</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1150,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.09210526315789473</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1174,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1056</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1182,13 +942,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.09859154929577464</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1200,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="K5">
-        <v>0.08333333333333333</v>
+        <v>0.09828009828009827</v>
       </c>
       <c r="L5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1224,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1232,13 +992,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04538341158059468</v>
+        <v>0.05072463768115942</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1250,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="K6">
-        <v>0.07894736842105263</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1274,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1282,13 +1042,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03599374021909233</v>
+        <v>0.05072463768115942</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1300,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="K7">
-        <v>0.06798245614035088</v>
+        <v>0.07371007371007371</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1324,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1332,13 +1092,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03129890453834116</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1350,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="K8">
-        <v>0.05482456140350877</v>
+        <v>0.06142506142506143</v>
       </c>
       <c r="L8">
         <v>25</v>
@@ -1382,7 +1142,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02190923317683881</v>
+        <v>0.02536231884057971</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1400,13 +1160,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="K9">
-        <v>0.03947368421052631</v>
+        <v>0.04422604422604422</v>
       </c>
       <c r="L9">
         <v>18</v>
@@ -1424,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1432,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02190923317683881</v>
+        <v>0.02536231884057971</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -1450,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="K10">
-        <v>0.03947368421052631</v>
+        <v>0.03685503685503685</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1474,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1482,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02034428794992175</v>
+        <v>0.02355072463768116</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1500,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="K11">
-        <v>0.02192982456140351</v>
+        <v>0.02457002457002457</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1532,13 +1292,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.02034428794992175</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1550,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="K12">
-        <v>0.01973684210526316</v>
+        <v>0.01965601965601966</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1574,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1582,13 +1342,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0187793427230047</v>
+        <v>0.01992753623188406</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1600,13 +1360,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="K13">
-        <v>0.01754385964912281</v>
+        <v>0.01965601965601966</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -1624,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1632,13 +1392,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0187793427230047</v>
+        <v>0.01811594202898551</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1653,16 +1413,16 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="K14">
-        <v>0.01535087719298246</v>
+        <v>0.01965601965601966</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1674,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1682,13 +1442,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01721439749608764</v>
+        <v>0.01811594202898551</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1700,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="K15">
-        <v>0.0131578947368421</v>
+        <v>0.0171990171990172</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1724,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1732,13 +1492,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01564945226917058</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1750,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="K16">
-        <v>0.0131578947368421</v>
+        <v>0.0171990171990172</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1774,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1782,13 +1542,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01564945226917058</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1800,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="K17">
-        <v>0.0131578947368421</v>
+        <v>0.01474201474201474</v>
       </c>
       <c r="L17">
         <v>6</v>
@@ -1824,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1832,7 +1592,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01408450704225352</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -1850,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="K18">
-        <v>0.01096491228070175</v>
+        <v>0.01474201474201474</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1874,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1882,7 +1642,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01408450704225352</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -1900,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>0.008771929824561403</v>
+        <v>0.01228501228501228</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1924,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1932,7 +1692,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01251956181533646</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1950,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="K20">
-        <v>0.008771929824561403</v>
+        <v>0.01228501228501228</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1974,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1982,7 +1742,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01251956181533646</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -2000,13 +1760,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="K21">
-        <v>0.008771929824561403</v>
+        <v>0.009828009828009828</v>
       </c>
       <c r="L21">
         <v>4</v>
@@ -2024,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -2032,7 +1792,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01251956181533646</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -2050,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="K22">
-        <v>0.008771929824561403</v>
+        <v>0.009828009828009828</v>
       </c>
       <c r="L22">
         <v>4</v>
@@ -2074,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -2082,7 +1842,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01251956181533646</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -2100,13 +1860,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="K23">
-        <v>0.008771929824561403</v>
+        <v>0.009828009828009828</v>
       </c>
       <c r="L23">
         <v>4</v>
@@ -2132,7 +1892,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01095461658841941</v>
+        <v>0.01268115942028986</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -2150,13 +1910,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="K24">
-        <v>0.008771929824561403</v>
+        <v>0.009828009828009828</v>
       </c>
       <c r="L24">
         <v>4</v>
@@ -2182,7 +1942,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01095461658841941</v>
+        <v>0.01268115942028986</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -2200,19 +1960,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="K25">
-        <v>0.008771929824561403</v>
+        <v>0.007371007371007371</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2224,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2232,7 +1992,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009389671361502348</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -2250,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="K26">
-        <v>0.006578947368421052</v>
+        <v>0.007371007371007371</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2274,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2282,7 +2042,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.009389671361502348</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2303,10 +2063,10 @@
         <v>2</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="K27">
-        <v>0.006578947368421052</v>
+        <v>0.007371007371007371</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -2324,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2332,7 +2092,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.009389671361502348</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -2350,19 +2110,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>0.006578947368421052</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2374,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2382,7 +2142,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.009389671361502348</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -2400,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="K29">
-        <v>0.006578947368421052</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2424,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2432,7 +2192,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.009389671361502348</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -2450,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="K30">
-        <v>0.006578947368421052</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2474,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2482,13 +2242,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.00782472613458529</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2500,19 +2260,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="K31">
-        <v>0.006578947368421052</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2524,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2532,7 +2292,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.00782472613458529</v>
+        <v>0.009057971014492754</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2550,19 +2310,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="K32">
-        <v>0.006578947368421052</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2574,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>280</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2582,7 +2342,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.00782472613458529</v>
+        <v>0.009057971014492754</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2600,19 +2360,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="K33">
-        <v>0.006578947368421052</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2624,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2632,13 +2392,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.006259780907668232</v>
+        <v>0.009057971014492754</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2650,19 +2410,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="K34">
-        <v>0.006578947368421052</v>
+        <v>0.004914004914004914</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2674,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>1733</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2682,37 +2442,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.006259780907668232</v>
+        <v>0.009057971014492754</v>
       </c>
       <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>4</v>
       </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="K35">
-        <v>0.006578947368421052</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2724,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2732,7 +2492,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006259780907668232</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -2750,19 +2510,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="K36">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2774,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2782,7 +2542,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006259780907668232</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -2800,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="K37">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2824,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2832,7 +2592,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006259780907668232</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -2850,19 +2610,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="K38">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2874,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2882,13 +2642,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004694835680751174</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2900,19 +2660,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K39">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2924,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2932,7 +2692,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004694835680751174</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -2950,19 +2710,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="K40">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2974,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2982,13 +2742,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004694835680751174</v>
+        <v>0.003623188405797101</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3000,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="K41">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -3024,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -3032,13 +2792,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004694835680751174</v>
+        <v>0.003623188405797101</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3050,19 +2810,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="K42">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -3074,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -3082,13 +2842,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004694835680751174</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3100,19 +2860,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="K43">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3124,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3132,13 +2892,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004694835680751174</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3150,19 +2910,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>16</v>
+        <v>780</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>147</v>
+        <v>100</v>
       </c>
       <c r="K44">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3174,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3182,13 +2942,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004694835680751174</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3200,19 +2960,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="K45">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3224,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3232,13 +2992,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004694835680751174</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3250,19 +3010,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>298</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="K46">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3274,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3282,13 +3042,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004694835680751174</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3300,19 +3060,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="K47">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3324,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3332,13 +3092,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004694835680751174</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3350,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="K48">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3374,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3382,13 +3142,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.003129890453834116</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3400,19 +3160,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="K49">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3424,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3432,13 +3192,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.003129890453834116</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3450,19 +3210,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="K50">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3474,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>135</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3482,13 +3242,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.003129890453834116</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3500,19 +3260,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="K51">
-        <v>0.004385964912280702</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3524,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>17</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3532,13 +3292,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.003129890453834116</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3550,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
       <c r="K52">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3574,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3582,13 +3342,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.003129890453834116</v>
+        <v>0.001811594202898551</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3600,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="K53">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3624,39 +3384,15 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
       <c r="J54" s="1" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="K54">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3674,39 +3410,15 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>4</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
       <c r="J55" s="1" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="K55">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L55">
         <v>1</v>
@@ -3724,39 +3436,15 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
       <c r="J56" s="1" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="K56">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L56">
         <v>1</v>
@@ -3774,39 +3462,15 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
       <c r="J57" s="1" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="K57">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -3824,39 +3488,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
       <c r="J58" s="1" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="K58">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -3874,39 +3514,15 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
       <c r="J59" s="1" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="K59">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L59">
         <v>1</v>
@@ -3924,39 +3540,15 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
       <c r="J60" s="1" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="K60">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L60">
         <v>1</v>
@@ -3974,39 +3566,15 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
       <c r="J61" s="1" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="K61">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L61">
         <v>1</v>
@@ -4024,39 +3592,15 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
       <c r="J62" s="1" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="K62">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L62">
         <v>1</v>
@@ -4074,39 +3618,15 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>4</v>
-      </c>
       <c r="J63" s="1" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="K63">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L63">
         <v>1</v>
@@ -4124,39 +3644,15 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
       <c r="J64" s="1" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="K64">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L64">
         <v>1</v>
@@ -4174,39 +3670,15 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="K65">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L65">
         <v>1</v>
@@ -4224,39 +3696,15 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="K66">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L66">
         <v>1</v>
@@ -4274,39 +3722,15 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.003129890453834116</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="K67">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L67">
         <v>1</v>
@@ -4324,39 +3748,15 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="K68">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4374,39 +3774,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>5</v>
-      </c>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="K69">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4424,39 +3800,15 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="K70">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4474,39 +3826,15 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>34</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>174</v>
+        <v>127</v>
       </c>
       <c r="K71">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4524,39 +3852,15 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>20</v>
-      </c>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="K72">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L72">
         <v>1</v>
@@ -4574,39 +3878,15 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>4</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="K73">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -4624,39 +3904,15 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>21</v>
-      </c>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="K74">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -4674,39 +3930,15 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="K75">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L75">
         <v>1</v>
@@ -4724,39 +3956,15 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="K76">
-        <v>0.002192982456140351</v>
+        <v>0.002457002457002457</v>
       </c>
       <c r="L76">
         <v>1</v>
@@ -4774,1441 +3982,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>3</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K77">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>10</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K78">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>2</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K79">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>14</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K80">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>4</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K81">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K82">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K83">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>21</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K84">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K85">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>11</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K86">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K87">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>8</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K88">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>2</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K89">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K90">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>1</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>2</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K91">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>11</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K92">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>2</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K93">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93">
         <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>1</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K94">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94">
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="K95">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L95">
-        <v>1</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>2</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K96">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L96">
-        <v>1</v>
-      </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="K97">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L97">
-        <v>1</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
-      <c r="A98" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>2</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="K98">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>2</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K99">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
-      </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100">
-        <v>0.001564945226917058</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>13</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K100">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L100">
-        <v>1</v>
-      </c>
-      <c r="M100">
-        <v>1</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="J101" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K101">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L101">
-        <v>1</v>
-      </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="N101">
-        <v>1</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
-      <c r="J102" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K102">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L102">
-        <v>1</v>
-      </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="P102" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q102">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="J103" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K103">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L103">
-        <v>1</v>
-      </c>
-      <c r="M103">
-        <v>1</v>
-      </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
-      <c r="J104" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K104">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L104">
-        <v>1</v>
-      </c>
-      <c r="M104">
-        <v>1</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
-      <c r="J105" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="K105">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L105">
-        <v>1</v>
-      </c>
-      <c r="M105">
-        <v>1</v>
-      </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-      <c r="P105" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="J106" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K106">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L106">
-        <v>1</v>
-      </c>
-      <c r="M106">
-        <v>1</v>
-      </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-      <c r="P106" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
-      <c r="J107" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="K107">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L107">
-        <v>1</v>
-      </c>
-      <c r="M107">
-        <v>1</v>
-      </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
-      <c r="J108" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K108">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L108">
-        <v>1</v>
-      </c>
-      <c r="M108">
-        <v>1</v>
-      </c>
-      <c r="N108">
-        <v>1</v>
-      </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="P108" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="J109" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K109">
-        <v>0.002192982456140351</v>
-      </c>
-      <c r="L109">
-        <v>1</v>
-      </c>
-      <c r="M109">
-        <v>1</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-      <c r="P109" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>314</v>
       </c>
     </row>
   </sheetData>
